--- a/draw/data/all_salience.xlsx
+++ b/draw/data/all_salience.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujinyang/Codes/TS-anomaly/notebooks/ase_figures/tmp_draw_salience_f1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liujinyang/Codes/TS-anomaly/draw/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B4861B-2FAD-D04F-838B-64701CF8C556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6500F5A-8F9C-C246-9DB1-71E916FDD714}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38180" yWindow="4040" windowWidth="27240" windowHeight="15320" xr2:uid="{D9FDDE35-D9A5-4A4A-9DD5-74F5DD6FB243}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{D9FDDE35-D9A5-4A4A-9DD5-74F5DD6FB243}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -119,20 +116,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -142,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -192,31 +175,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,18 +201,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -567,13 +518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B73524-1CF3-B947-A904-A5699E906D97}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -593,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17" thickBot="1">
+    <row r="2" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="1" t="s">
         <v>18</v>
@@ -611,244 +562,244 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="17" thickTop="1">
+    <row r="3" spans="1:6" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
-        <v>0.29741400000000001</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.34683700000000001</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0.32139000000000001</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0.198627</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0.74344200000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="B3">
+        <v>0.942163218144216</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.74115474163821404</v>
+      </c>
+      <c r="F3">
+        <v>0.595468433591402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
-        <v>0.30042000000000002</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.30234100000000003</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.28802</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0.27713599999999999</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0.74085699999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4">
+        <v>0.69936124659792198</v>
+      </c>
+      <c r="C4">
+        <v>0.27517768846338603</v>
+      </c>
+      <c r="D4">
+        <v>0.60513753538842097</v>
+      </c>
+      <c r="E4">
+        <v>0.959592914330478</v>
+      </c>
+      <c r="F4">
+        <v>0.577426181684627</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8">
-        <v>0.34223700000000001</v>
-      </c>
-      <c r="C5" s="8">
-        <v>0.33021200000000001</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.31329699999999999</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.22867499999999999</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.75756999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="B5">
+        <v>0.81103908723766505</v>
+      </c>
+      <c r="C5">
+        <v>0.24596992502437401</v>
+      </c>
+      <c r="D5">
+        <v>0.35937314957589001</v>
+      </c>
+      <c r="E5">
+        <v>0.69143399642389203</v>
+      </c>
+      <c r="F5">
+        <v>0.15575947028620499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="8">
-        <v>0.29741400000000001</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0.31511800000000001</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0.32139000000000001</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0.198627</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0.73484799999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6">
+        <v>0.56942007369895198</v>
+      </c>
+      <c r="C6">
+        <v>0.71778795016504504</v>
+      </c>
+      <c r="D6">
+        <v>0.81662395337025395</v>
+      </c>
+      <c r="E6">
+        <v>0.73215958573697104</v>
+      </c>
+      <c r="F6">
+        <v>0.32256125029926502</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="9">
-        <v>0.40497</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0.32673400000000002</v>
-      </c>
-      <c r="D7" s="9">
-        <v>0.32144800000000001</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0.17759800000000001</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0.75356800000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="B7">
+        <v>0.86277888201402197</v>
+      </c>
+      <c r="C7">
+        <v>0.17598957709218399</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.226300664389298</v>
+      </c>
+      <c r="F7">
+        <v>0.31684877441255999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="10">
-        <v>0.408997</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.33311000000000002</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.32468200000000003</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0.17172200000000001</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0.75339599999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="B8">
+        <v>0.86668866098712605</v>
+      </c>
+      <c r="C8">
+        <v>0.226733720388657</v>
+      </c>
+      <c r="D8">
+        <v>4.1984420836466098E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.29173920555934402</v>
+      </c>
+      <c r="F8">
+        <v>0.35678801681781702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8">
-        <v>0.40368700000000002</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0.30038900000000002</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0.27486899999999997</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0.134432</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.77396299999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9">
+        <v>0.90173760069117903</v>
+      </c>
+      <c r="C9">
+        <v>0.43414392189913698</v>
+      </c>
+      <c r="D9">
+        <v>0.58449486172019804</v>
+      </c>
+      <c r="E9">
+        <v>0.55784340135154997</v>
+      </c>
+      <c r="F9">
+        <v>0.999999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="8">
-        <v>0.34468300000000002</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.29636600000000002</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0.32001099999999999</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0.28004600000000002</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0.75667099999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10">
+        <v>0.66214826398902904</v>
+      </c>
+      <c r="C10">
+        <v>0.45136050671313399</v>
+      </c>
+      <c r="D10">
+        <v>0.77767034825176695</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.31401681970864698</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8">
-        <v>0.33194000000000001</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0.316631</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0.28612100000000001</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0.12659899999999999</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0.76205699999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.96681287699444096</v>
+      </c>
+      <c r="E11">
+        <v>0.26578883527508601</v>
+      </c>
+      <c r="F11">
+        <v>0.56136014751133501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8">
-        <v>0.123789</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0.24626899999999999</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.29337600000000003</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0.122323</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0.22559699999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.116388578136325</v>
+      </c>
+      <c r="D12">
+        <v>0.49069924283630201</v>
+      </c>
+      <c r="E12">
+        <v>0.55496779591035905</v>
+      </c>
+      <c r="F12">
+        <v>0.10224983200015</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="8">
-        <v>0.28861900000000001</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0.26696900000000001</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0.31118099999999999</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0.15570400000000001</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0.232708</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="B13">
+        <v>3.5154472817655699E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.143718863381361</v>
+      </c>
+      <c r="D13">
+        <v>0.29724145654827999</v>
+      </c>
+      <c r="E13">
+        <v>0.65127603033040204</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="11">
-        <v>0.35785600000000001</v>
-      </c>
-      <c r="C14" s="11">
-        <v>0.247529</v>
-      </c>
-      <c r="D14" s="11">
-        <v>0.31030999999999997</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.13633000000000001</v>
-      </c>
-      <c r="F14" s="11">
-        <v>0.76013299999999995</v>
+      <c r="B14">
+        <v>0.77858409879073998</v>
+      </c>
+      <c r="C14">
+        <v>0.83829330793756096</v>
+      </c>
+      <c r="D14">
+        <v>0.39877558264204899</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.43117021472235501</v>
       </c>
     </row>
   </sheetData>
